--- a/7. Statistic Analysis/Datasheets/JAVA/Tools/APR_Efficiency - nopol.xlsx
+++ b/7. Statistic Analysis/Datasheets/JAVA/Tools/APR_Efficiency - nopol.xlsx
@@ -14,7 +14,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <si>
+    <t xml:space="preserve"><![CDATA[Var1]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[MaintainabilityIndex]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLength]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[VocabularySize]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramVolume]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[DifficultyLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[TimeToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NewVar]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NewVar]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[MaintainabilityIndex]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLength]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[VocabularySize]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramVolume]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[DifficultyLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[TimeToImplement]]></t>
+  </si>
   <si>
     <t xml:space="preserve"><![CDATA[Nopol_Chart-13_Fixed]]></t>
   </si>
@@ -506,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC525"/>
+  <dimension ref="A1:AC526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,1189 +634,1189 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="n" s="0">
-        <v>7.000000</v>
-      </c>
-      <c r="C1" t="n" s="0">
-        <v>62.100000</v>
-      </c>
-      <c r="D1" t="n" s="0">
-        <v>67.800000</v>
-      </c>
-      <c r="E1" t="n" s="0">
-        <v>12.300000</v>
-      </c>
-      <c r="F1" t="n" s="0">
-        <v>30.100000</v>
-      </c>
-      <c r="G1" t="n" s="0">
-        <v>3.800000</v>
-      </c>
-      <c r="H1" t="n" s="0">
-        <v>16.100000</v>
-      </c>
-      <c r="I1" t="n" s="0">
-        <v>97.900000</v>
-      </c>
-      <c r="J1" t="n" s="0">
-        <v>109.000000</v>
-      </c>
-      <c r="K1" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="L1" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="M1" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="N1" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="O1" t="n" s="0">
-        <v/>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>14</v>
       </c>
       <c r="P1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="n" s="0">
-        <v>7.100000</v>
-      </c>
-      <c r="R1" t="n" s="0">
-        <v>62.100000</v>
-      </c>
-      <c r="S1" t="n" s="0">
-        <v>67.900000</v>
-      </c>
-      <c r="T1" t="n" s="0">
-        <v>12.300000</v>
-      </c>
-      <c r="U1" t="n" s="0">
-        <v>30.200000</v>
-      </c>
-      <c r="V1" t="n" s="0">
-        <v>3.800000</v>
-      </c>
-      <c r="W1" t="n" s="0">
-        <v>16.100000</v>
-      </c>
-      <c r="X1" t="n" s="0">
-        <v>98.100000</v>
-      </c>
-      <c r="Y1" t="n" s="0">
-        <v>109.030000</v>
-      </c>
-      <c r="Z1" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="AA1" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="AB1" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="AC1" t="n" s="0">
-        <v>0.000000</v>
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>2.550000</v>
+        <v>7.000000</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>80.410000</v>
+        <v>62.100000</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>10.840000</v>
+        <v>67.800000</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>5.390000</v>
+        <v>12.300000</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>8.160000</v>
+        <v>30.100000</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>3.160000</v>
+        <v>3.800000</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>8.550000</v>
+        <v>16.100000</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>19.000000</v>
+        <v>97.900000</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>38.680000</v>
+        <v>109.000000</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="L2" t="n" s="0">
-        <v>0.034000</v>
+        <v>0.000000</v>
       </c>
       <c r="M2" t="n" s="0">
-        <v>2.500000</v>
+        <v>0.000000</v>
       </c>
       <c r="N2" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="O2" t="n" s="0">
         <v/>
       </c>
       <c r="P2" t="s" s="0">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="n" s="0">
-        <v>2.570000</v>
+        <v>7.100000</v>
       </c>
       <c r="R2" t="n" s="0">
-        <v>80.430000</v>
+        <v>62.100000</v>
       </c>
       <c r="S2" t="n" s="0">
-        <v>10.800000</v>
+        <v>67.900000</v>
       </c>
       <c r="T2" t="n" s="0">
-        <v>5.430000</v>
+        <v>12.300000</v>
       </c>
       <c r="U2" t="n" s="0">
-        <v>8.270000</v>
+        <v>30.200000</v>
       </c>
       <c r="V2" t="n" s="0">
-        <v>3.180000</v>
+        <v>3.800000</v>
       </c>
       <c r="W2" t="n" s="0">
-        <v>8.610000</v>
+        <v>16.100000</v>
       </c>
       <c r="X2" t="n" s="0">
-        <v>19.070000</v>
+        <v>98.100000</v>
       </c>
       <c r="Y2" t="n" s="0">
-        <v>38.980000</v>
+        <v>109.030000</v>
       </c>
       <c r="Z2" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA2" t="n" s="0">
-        <v>0.034000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB2" t="n" s="0">
-        <v>2.500000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC2" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.910000</v>
+        <v>2.550000</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>75.360000</v>
+        <v>80.410000</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>43.180000</v>
+        <v>10.840000</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>10.730000</v>
+        <v>5.390000</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>25.550000</v>
+        <v>8.160000</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>4.270000</v>
+        <v>3.160000</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>15.000000</v>
+        <v>8.550000</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>68.730000</v>
+        <v>19.000000</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>104.340000</v>
+        <v>38.680000</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.140000</v>
       </c>
       <c r="L3" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.034000</v>
       </c>
       <c r="M3" t="n" s="0">
-        <v>2.310000</v>
+        <v>2.500000</v>
       </c>
       <c r="N3" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.140000</v>
       </c>
       <c r="O3" t="n" s="0">
         <v/>
       </c>
       <c r="P3" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="n" s="0">
-        <v>4.640000</v>
+        <v>2.570000</v>
       </c>
       <c r="R3" t="n" s="0">
-        <v>75.360000</v>
+        <v>80.430000</v>
       </c>
       <c r="S3" t="n" s="0">
-        <v>42.090000</v>
+        <v>10.800000</v>
       </c>
       <c r="T3" t="n" s="0">
-        <v>10.730000</v>
+        <v>5.430000</v>
       </c>
       <c r="U3" t="n" s="0">
-        <v>25.000000</v>
+        <v>8.270000</v>
       </c>
       <c r="V3" t="n" s="0">
-        <v>4.090000</v>
+        <v>3.180000</v>
       </c>
       <c r="W3" t="n" s="0">
-        <v>14.820000</v>
+        <v>8.610000</v>
       </c>
       <c r="X3" t="n" s="0">
-        <v>67.090000</v>
+        <v>19.070000</v>
       </c>
       <c r="Y3" t="n" s="0">
-        <v>101.970000</v>
+        <v>38.980000</v>
       </c>
       <c r="Z3" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.140000</v>
       </c>
       <c r="AA3" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.034000</v>
       </c>
       <c r="AB3" t="n" s="0">
-        <v>2.310000</v>
+        <v>2.500000</v>
       </c>
       <c r="AC3" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.140000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>2.240000</v>
+        <v>4.910000</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>83.680000</v>
+        <v>75.360000</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>9.380000</v>
+        <v>43.180000</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>4.290000</v>
+        <v>10.730000</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>5.710000</v>
+        <v>25.550000</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>2.590000</v>
+        <v>4.270000</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>6.880000</v>
+        <v>15.000000</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>15.090000</v>
+        <v>68.730000</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>28.850000</v>
+        <v>104.340000</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>0.059000</v>
+        <v>0.091000</v>
       </c>
       <c r="L4" t="n" s="0">
-        <v>0.015000</v>
+        <v>0.091000</v>
       </c>
       <c r="M4" t="n" s="0">
-        <v>0.830000</v>
+        <v>2.310000</v>
       </c>
       <c r="N4" t="n" s="0">
-        <v>0.046000</v>
+        <v>0.130000</v>
       </c>
       <c r="O4" t="n" s="0">
         <v/>
       </c>
       <c r="P4" t="s" s="0">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="n" s="0">
-        <v>2.240000</v>
+        <v>4.640000</v>
       </c>
       <c r="R4" t="n" s="0">
-        <v>83.710000</v>
+        <v>75.360000</v>
       </c>
       <c r="S4" t="n" s="0">
-        <v>9.350000</v>
+        <v>42.090000</v>
       </c>
       <c r="T4" t="n" s="0">
-        <v>4.290000</v>
+        <v>10.730000</v>
       </c>
       <c r="U4" t="n" s="0">
-        <v>5.760000</v>
+        <v>25.000000</v>
       </c>
       <c r="V4" t="n" s="0">
-        <v>2.710000</v>
+        <v>4.090000</v>
       </c>
       <c r="W4" t="n" s="0">
-        <v>7.000000</v>
+        <v>14.820000</v>
       </c>
       <c r="X4" t="n" s="0">
-        <v>15.120000</v>
+        <v>67.090000</v>
       </c>
       <c r="Y4" t="n" s="0">
-        <v>29.520000</v>
+        <v>101.970000</v>
       </c>
       <c r="Z4" t="n" s="0">
-        <v>0.059000</v>
+        <v>0.091000</v>
       </c>
       <c r="AA4" t="n" s="0">
-        <v>0.015000</v>
+        <v>0.091000</v>
       </c>
       <c r="AB4" t="n" s="0">
-        <v>0.830000</v>
+        <v>2.310000</v>
       </c>
       <c r="AC4" t="n" s="0">
-        <v>0.046000</v>
+        <v>0.130000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>2.570000</v>
+        <v>2.240000</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>80.410000</v>
+        <v>83.680000</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>10.890000</v>
+        <v>9.380000</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>5.390000</v>
+        <v>4.290000</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>8.230000</v>
+        <v>5.710000</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>3.200000</v>
+        <v>2.590000</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>8.590000</v>
+        <v>6.880000</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>19.110000</v>
+        <v>15.090000</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>39.010000</v>
+        <v>28.850000</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.059000</v>
       </c>
       <c r="L5" t="n" s="0">
-        <v>0.034000</v>
+        <v>0.015000</v>
       </c>
       <c r="M5" t="n" s="0">
-        <v>2.500000</v>
+        <v>0.830000</v>
       </c>
       <c r="N5" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.046000</v>
       </c>
       <c r="O5" t="n" s="0">
         <v/>
       </c>
       <c r="P5" t="s" s="0">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="n" s="0">
-        <v>2.570000</v>
+        <v>2.240000</v>
       </c>
       <c r="R5" t="n" s="0">
-        <v>80.390000</v>
+        <v>83.710000</v>
       </c>
       <c r="S5" t="n" s="0">
-        <v>10.840000</v>
+        <v>9.350000</v>
       </c>
       <c r="T5" t="n" s="0">
-        <v>5.410000</v>
+        <v>4.290000</v>
       </c>
       <c r="U5" t="n" s="0">
-        <v>8.270000</v>
+        <v>5.760000</v>
       </c>
       <c r="V5" t="n" s="0">
-        <v>3.250000</v>
+        <v>2.710000</v>
       </c>
       <c r="W5" t="n" s="0">
-        <v>8.660000</v>
+        <v>7.000000</v>
       </c>
       <c r="X5" t="n" s="0">
-        <v>19.110000</v>
+        <v>15.120000</v>
       </c>
       <c r="Y5" t="n" s="0">
-        <v>39.440000</v>
+        <v>29.520000</v>
       </c>
       <c r="Z5" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.059000</v>
       </c>
       <c r="AA5" t="n" s="0">
-        <v>0.034000</v>
+        <v>0.015000</v>
       </c>
       <c r="AB5" t="n" s="0">
-        <v>2.500000</v>
+        <v>0.830000</v>
       </c>
       <c r="AC5" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.046000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>7.110000</v>
+        <v>2.570000</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>78.260000</v>
+        <v>80.410000</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>22.950000</v>
+        <v>10.890000</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>6.630000</v>
+        <v>5.390000</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>19.680000</v>
+        <v>8.230000</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>4.370000</v>
+        <v>3.200000</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>11.000000</v>
+        <v>8.590000</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>42.630000</v>
+        <v>19.110000</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>64.690000</v>
+        <v>39.010000</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.140000</v>
       </c>
       <c r="L6" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.034000</v>
       </c>
       <c r="M6" t="n" s="0">
-        <v>0.000000</v>
+        <v>2.500000</v>
       </c>
       <c r="N6" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.140000</v>
       </c>
       <c r="O6" t="n" s="0">
         <v/>
       </c>
       <c r="P6" t="s" s="0">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="Q6" t="n" s="0">
-        <v>7.050000</v>
+        <v>2.570000</v>
       </c>
       <c r="R6" t="n" s="0">
-        <v>78.260000</v>
+        <v>80.390000</v>
       </c>
       <c r="S6" t="n" s="0">
-        <v>22.740000</v>
+        <v>10.840000</v>
       </c>
       <c r="T6" t="n" s="0">
-        <v>6.630000</v>
+        <v>5.410000</v>
       </c>
       <c r="U6" t="n" s="0">
-        <v>19.370000</v>
+        <v>8.270000</v>
       </c>
       <c r="V6" t="n" s="0">
-        <v>4.420000</v>
+        <v>3.250000</v>
       </c>
       <c r="W6" t="n" s="0">
-        <v>11.050000</v>
+        <v>8.660000</v>
       </c>
       <c r="X6" t="n" s="0">
-        <v>42.110000</v>
+        <v>19.110000</v>
       </c>
       <c r="Y6" t="n" s="0">
-        <v>65.030000</v>
+        <v>39.440000</v>
       </c>
       <c r="Z6" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.140000</v>
       </c>
       <c r="AA6" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.034000</v>
       </c>
       <c r="AB6" t="n" s="0">
-        <v>0.000000</v>
+        <v>2.500000</v>
       </c>
       <c r="AC6" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.140000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>3.760000</v>
+        <v>7.110000</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>76.240000</v>
+        <v>78.260000</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>13.120000</v>
+        <v>22.950000</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>6.760000</v>
+        <v>6.630000</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>9.280000</v>
+        <v>19.680000</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>3.480000</v>
+        <v>4.370000</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>10.240000</v>
+        <v>11.000000</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>22.400000</v>
+        <v>42.630000</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>50.170000</v>
+        <v>64.690000</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.000000</v>
       </c>
       <c r="L7" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.000000</v>
       </c>
       <c r="M7" t="n" s="0">
-        <v>0.960000</v>
+        <v>0.000000</v>
       </c>
       <c r="N7" t="n" s="0">
-        <v>0.053000</v>
+        <v>0.000000</v>
       </c>
       <c r="O7" t="n" s="0">
         <v/>
       </c>
       <c r="P7" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="n" s="0">
-        <v>3.760000</v>
+        <v>7.050000</v>
       </c>
       <c r="R7" t="n" s="0">
-        <v>76.320000</v>
+        <v>78.260000</v>
       </c>
       <c r="S7" t="n" s="0">
-        <v>12.840000</v>
+        <v>22.740000</v>
       </c>
       <c r="T7" t="n" s="0">
-        <v>6.680000</v>
+        <v>6.630000</v>
       </c>
       <c r="U7" t="n" s="0">
-        <v>9.280000</v>
+        <v>19.370000</v>
       </c>
       <c r="V7" t="n" s="0">
-        <v>3.480000</v>
+        <v>4.420000</v>
       </c>
       <c r="W7" t="n" s="0">
-        <v>10.160000</v>
+        <v>11.050000</v>
       </c>
       <c r="X7" t="n" s="0">
-        <v>22.120000</v>
+        <v>42.110000</v>
       </c>
       <c r="Y7" t="n" s="0">
-        <v>49.440000</v>
+        <v>65.030000</v>
       </c>
       <c r="Z7" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA7" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB7" t="n" s="0">
-        <v>0.960000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC7" t="n" s="0">
-        <v>0.053000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>3.190000</v>
+        <v>3.760000</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>82.860000</v>
+        <v>76.240000</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>8.920000</v>
+        <v>13.120000</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>5.650000</v>
+        <v>6.760000</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>5.760000</v>
+        <v>9.280000</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>2.030000</v>
+        <v>3.480000</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>7.680000</v>
+        <v>10.240000</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>14.680000</v>
+        <v>22.400000</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>29.950000</v>
+        <v>50.170000</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>0.270000</v>
+        <v>0.040000</v>
       </c>
       <c r="L8" t="n" s="0">
-        <v>0.110000</v>
+        <v>0.040000</v>
       </c>
       <c r="M8" t="n" s="0">
-        <v>10.430000</v>
+        <v>0.960000</v>
       </c>
       <c r="N8" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.053000</v>
       </c>
       <c r="O8" t="n" s="0">
         <v/>
       </c>
       <c r="P8" t="s" s="0">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="Q8" t="n" s="0">
-        <v>3.190000</v>
+        <v>3.760000</v>
       </c>
       <c r="R8" t="n" s="0">
-        <v>82.890000</v>
+        <v>76.320000</v>
       </c>
       <c r="S8" t="n" s="0">
-        <v>8.920000</v>
+        <v>12.840000</v>
       </c>
       <c r="T8" t="n" s="0">
-        <v>5.620000</v>
+        <v>6.680000</v>
       </c>
       <c r="U8" t="n" s="0">
-        <v>5.760000</v>
+        <v>9.280000</v>
       </c>
       <c r="V8" t="n" s="0">
-        <v>2.050000</v>
+        <v>3.480000</v>
       </c>
       <c r="W8" t="n" s="0">
-        <v>7.680000</v>
+        <v>10.160000</v>
       </c>
       <c r="X8" t="n" s="0">
-        <v>14.680000</v>
+        <v>22.120000</v>
       </c>
       <c r="Y8" t="n" s="0">
-        <v>29.950000</v>
+        <v>49.440000</v>
       </c>
       <c r="Z8" t="n" s="0">
-        <v>0.270000</v>
+        <v>0.040000</v>
       </c>
       <c r="AA8" t="n" s="0">
-        <v>0.110000</v>
+        <v>0.040000</v>
       </c>
       <c r="AB8" t="n" s="0">
-        <v>10.430000</v>
+        <v>0.960000</v>
       </c>
       <c r="AC8" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.053000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>3.600000</v>
+        <v>3.190000</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>78.430000</v>
+        <v>82.860000</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>15.370000</v>
+        <v>8.920000</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>6.800000</v>
+        <v>5.650000</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>11.700000</v>
+        <v>5.760000</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>4.070000</v>
+        <v>2.030000</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>10.870000</v>
+        <v>7.680000</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>27.070000</v>
+        <v>14.680000</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>54.850000</v>
+        <v>29.950000</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>0.200000</v>
+        <v>0.270000</v>
       </c>
       <c r="L9" t="n" s="0">
-        <v>0.025000</v>
+        <v>0.110000</v>
       </c>
       <c r="M9" t="n" s="0">
-        <v>9.380000</v>
+        <v>10.430000</v>
       </c>
       <c r="N9" t="n" s="0">
-        <v>0.520000</v>
+        <v>0.580000</v>
       </c>
       <c r="O9" t="n" s="0">
         <v/>
       </c>
       <c r="P9" t="s" s="0">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="n" s="0">
-        <v>3.630000</v>
+        <v>3.190000</v>
       </c>
       <c r="R9" t="n" s="0">
-        <v>78.400000</v>
+        <v>82.890000</v>
       </c>
       <c r="S9" t="n" s="0">
-        <v>15.430000</v>
+        <v>8.920000</v>
       </c>
       <c r="T9" t="n" s="0">
-        <v>6.800000</v>
+        <v>5.620000</v>
       </c>
       <c r="U9" t="n" s="0">
-        <v>11.770000</v>
+        <v>5.760000</v>
       </c>
       <c r="V9" t="n" s="0">
-        <v>4.100000</v>
+        <v>2.050000</v>
       </c>
       <c r="W9" t="n" s="0">
-        <v>10.900000</v>
+        <v>7.680000</v>
       </c>
       <c r="X9" t="n" s="0">
-        <v>27.200000</v>
+        <v>14.680000</v>
       </c>
       <c r="Y9" t="n" s="0">
-        <v>55.160000</v>
+        <v>29.950000</v>
       </c>
       <c r="Z9" t="n" s="0">
-        <v>0.200000</v>
+        <v>0.270000</v>
       </c>
       <c r="AA9" t="n" s="0">
-        <v>0.025000</v>
+        <v>0.110000</v>
       </c>
       <c r="AB9" t="n" s="0">
-        <v>9.380000</v>
+        <v>10.430000</v>
       </c>
       <c r="AC9" t="n" s="0">
-        <v>0.520000</v>
+        <v>0.580000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>2.170000</v>
+        <v>3.600000</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>80.250000</v>
+        <v>78.430000</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>2.250000</v>
+        <v>15.370000</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>3.500000</v>
+        <v>6.800000</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>5.750000</v>
+        <v>11.700000</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>3.750000</v>
+        <v>4.070000</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>7.250000</v>
+        <v>10.870000</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>8.000000</v>
+        <v>27.070000</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>23.100000</v>
+        <v>54.850000</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>6.500000</v>
+        <v>0.200000</v>
       </c>
       <c r="L10" t="n" s="0">
-        <v>0.400000</v>
+        <v>0.025000</v>
       </c>
       <c r="M10" t="n" s="0">
-        <v>179.440000</v>
+        <v>9.380000</v>
       </c>
       <c r="N10" t="n" s="0">
-        <v>9.970000</v>
+        <v>0.520000</v>
       </c>
       <c r="O10" t="n" s="0">
         <v/>
       </c>
       <c r="P10" t="s" s="0">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="n" s="0">
-        <v>2.170000</v>
+        <v>3.630000</v>
       </c>
       <c r="R10" t="n" s="0">
-        <v>80.170000</v>
+        <v>78.400000</v>
       </c>
       <c r="S10" t="n" s="0">
-        <v>2.250000</v>
+        <v>15.430000</v>
       </c>
       <c r="T10" t="n" s="0">
-        <v>3.580000</v>
+        <v>6.800000</v>
       </c>
       <c r="U10" t="n" s="0">
-        <v>5.750000</v>
+        <v>11.770000</v>
       </c>
       <c r="V10" t="n" s="0">
-        <v>3.750000</v>
+        <v>4.100000</v>
       </c>
       <c r="W10" t="n" s="0">
-        <v>7.330000</v>
+        <v>10.900000</v>
       </c>
       <c r="X10" t="n" s="0">
-        <v>8.000000</v>
+        <v>27.200000</v>
       </c>
       <c r="Y10" t="n" s="0">
-        <v>23.390000</v>
+        <v>55.160000</v>
       </c>
       <c r="Z10" t="n" s="0">
-        <v>6.920000</v>
+        <v>0.200000</v>
       </c>
       <c r="AA10" t="n" s="0">
-        <v>0.400000</v>
+        <v>0.025000</v>
       </c>
       <c r="AB10" t="n" s="0">
-        <v>196.730000</v>
+        <v>9.380000</v>
       </c>
       <c r="AC10" t="n" s="0">
-        <v>10.930000</v>
+        <v>0.520000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>5.130000</v>
+        <v>2.170000</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>73.420000</v>
+        <v>80.250000</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>17.920000</v>
+        <v>2.250000</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>6.770000</v>
+        <v>3.500000</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>11.960000</v>
+        <v>5.750000</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>4.790000</v>
+        <v>3.750000</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>11.570000</v>
+        <v>7.250000</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>29.890000</v>
+        <v>8.000000</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>58.170000</v>
+        <v>23.100000</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>0.000000</v>
+        <v>6.500000</v>
       </c>
       <c r="L11" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.400000</v>
       </c>
       <c r="M11" t="n" s="0">
-        <v>0.000000</v>
+        <v>179.440000</v>
       </c>
       <c r="N11" t="n" s="0">
-        <v>0.000000</v>
+        <v>9.970000</v>
       </c>
       <c r="O11" t="n" s="0">
         <v/>
       </c>
       <c r="P11" t="s" s="0">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="Q11" t="n" s="0">
-        <v>5.080000</v>
+        <v>2.170000</v>
       </c>
       <c r="R11" t="n" s="0">
-        <v>73.430000</v>
+        <v>80.170000</v>
       </c>
       <c r="S11" t="n" s="0">
-        <v>17.830000</v>
+        <v>2.250000</v>
       </c>
       <c r="T11" t="n" s="0">
-        <v>6.750000</v>
+        <v>3.580000</v>
       </c>
       <c r="U11" t="n" s="0">
-        <v>11.750000</v>
+        <v>5.750000</v>
       </c>
       <c r="V11" t="n" s="0">
-        <v>4.790000</v>
+        <v>3.750000</v>
       </c>
       <c r="W11" t="n" s="0">
-        <v>11.550000</v>
+        <v>7.330000</v>
       </c>
       <c r="X11" t="n" s="0">
-        <v>29.580000</v>
+        <v>8.000000</v>
       </c>
       <c r="Y11" t="n" s="0">
-        <v>57.950000</v>
+        <v>23.390000</v>
       </c>
       <c r="Z11" t="n" s="0">
-        <v>0.000000</v>
+        <v>6.920000</v>
       </c>
       <c r="AA11" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.400000</v>
       </c>
       <c r="AB11" t="n" s="0">
-        <v>0.000000</v>
+        <v>196.730000</v>
       </c>
       <c r="AC11" t="n" s="0">
-        <v>0.000000</v>
+        <v>10.930000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>1.410000</v>
+        <v>5.130000</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>86.360000</v>
+        <v>73.420000</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>4.550000</v>
+        <v>17.920000</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>3.180000</v>
+        <v>6.770000</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>5.090000</v>
+        <v>11.960000</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>3.180000</v>
+        <v>4.790000</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>6.360000</v>
+        <v>11.570000</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>9.640000</v>
+        <v>29.890000</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>21.740000</v>
+        <v>58.170000</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>2.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="L12" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="M12" t="n" s="0">
-        <v>50.220000</v>
+        <v>0.000000</v>
       </c>
       <c r="N12" t="n" s="0">
-        <v>2.790000</v>
+        <v>0.000000</v>
       </c>
       <c r="O12" t="n" s="0">
         <v/>
       </c>
       <c r="P12" t="s" s="0">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="Q12" t="n" s="0">
-        <v>1.550000</v>
+        <v>5.080000</v>
       </c>
       <c r="R12" t="n" s="0">
-        <v>86.320000</v>
+        <v>73.430000</v>
       </c>
       <c r="S12" t="n" s="0">
-        <v>4.770000</v>
+        <v>17.830000</v>
       </c>
       <c r="T12" t="n" s="0">
-        <v>3.180000</v>
+        <v>6.750000</v>
       </c>
       <c r="U12" t="n" s="0">
-        <v>5.500000</v>
+        <v>11.750000</v>
       </c>
       <c r="V12" t="n" s="0">
-        <v>3.450000</v>
+        <v>4.790000</v>
       </c>
       <c r="W12" t="n" s="0">
-        <v>6.640000</v>
+        <v>11.550000</v>
       </c>
       <c r="X12" t="n" s="0">
-        <v>10.270000</v>
+        <v>29.580000</v>
       </c>
       <c r="Y12" t="n" s="0">
-        <v>23.940000</v>
+        <v>57.950000</v>
       </c>
       <c r="Z12" t="n" s="0">
-        <v>2.000000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA12" t="n" s="0">
-        <v>0.170000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB12" t="n" s="0">
-        <v>48.050000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC12" t="n" s="0">
-        <v>2.670000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>3.540000</v>
+        <v>1.410000</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>75.310000</v>
+        <v>86.360000</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>21.390000</v>
+        <v>4.550000</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>8.610000</v>
+        <v>3.180000</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>17.060000</v>
+        <v>5.090000</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>5.280000</v>
+        <v>3.180000</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>13.890000</v>
+        <v>6.360000</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>38.440000</v>
+        <v>9.640000</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>75.840000</v>
+        <v>21.740000</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>0.260000</v>
+        <v>2.140000</v>
       </c>
       <c r="L13" t="n" s="0">
-        <v>0.039000</v>
+        <v>0.140000</v>
       </c>
       <c r="M13" t="n" s="0">
-        <v>5.570000</v>
+        <v>50.220000</v>
       </c>
       <c r="N13" t="n" s="0">
-        <v>0.310000</v>
+        <v>2.790000</v>
       </c>
       <c r="O13" t="n" s="0">
         <v/>
       </c>
       <c r="P13" t="s" s="0">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="n" s="0">
-        <v>3.560000</v>
+        <v>1.550000</v>
       </c>
       <c r="R13" t="n" s="0">
-        <v>75.350000</v>
+        <v>86.320000</v>
       </c>
       <c r="S13" t="n" s="0">
-        <v>21.350000</v>
+        <v>4.770000</v>
       </c>
       <c r="T13" t="n" s="0">
-        <v>8.570000</v>
+        <v>3.180000</v>
       </c>
       <c r="U13" t="n" s="0">
-        <v>17.090000</v>
+        <v>5.500000</v>
       </c>
       <c r="V13" t="n" s="0">
-        <v>5.300000</v>
+        <v>3.450000</v>
       </c>
       <c r="W13" t="n" s="0">
-        <v>13.870000</v>
+        <v>6.640000</v>
       </c>
       <c r="X13" t="n" s="0">
-        <v>38.440000</v>
+        <v>10.270000</v>
       </c>
       <c r="Y13" t="n" s="0">
-        <v>75.780000</v>
+        <v>23.940000</v>
       </c>
       <c r="Z13" t="n" s="0">
-        <v>0.260000</v>
+        <v>2.000000</v>
       </c>
       <c r="AA13" t="n" s="0">
-        <v>0.039000</v>
+        <v>0.170000</v>
       </c>
       <c r="AB13" t="n" s="0">
-        <v>5.570000</v>
+        <v>48.050000</v>
       </c>
       <c r="AC13" t="n" s="0">
-        <v>0.310000</v>
+        <v>2.670000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>3.500000</v>
+        <v>3.540000</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>75.430000</v>
+        <v>75.310000</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>20.940000</v>
+        <v>21.390000</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>8.540000</v>
+        <v>8.610000</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>16.850000</v>
+        <v>17.060000</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>5.260000</v>
+        <v>5.280000</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>13.800000</v>
+        <v>13.890000</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>37.800000</v>
+        <v>38.440000</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>75.060000</v>
+        <v>75.840000</v>
       </c>
       <c r="K14" t="n" s="0">
         <v>0.260000</v>
@@ -1747,140 +1834,140 @@
         <v/>
       </c>
       <c r="P14" t="s" s="0">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="Q14" t="n" s="0">
-        <v>3.480000</v>
+        <v>3.560000</v>
       </c>
       <c r="R14" t="n" s="0">
-        <v>75.520000</v>
+        <v>75.350000</v>
       </c>
       <c r="S14" t="n" s="0">
-        <v>20.940000</v>
+        <v>21.350000</v>
       </c>
       <c r="T14" t="n" s="0">
-        <v>8.540000</v>
+        <v>8.570000</v>
       </c>
       <c r="U14" t="n" s="0">
-        <v>16.800000</v>
+        <v>17.090000</v>
       </c>
       <c r="V14" t="n" s="0">
-        <v>5.220000</v>
+        <v>5.300000</v>
       </c>
       <c r="W14" t="n" s="0">
-        <v>13.760000</v>
+        <v>13.870000</v>
       </c>
       <c r="X14" t="n" s="0">
-        <v>37.740000</v>
+        <v>38.440000</v>
       </c>
       <c r="Y14" t="n" s="0">
-        <v>75.040000</v>
+        <v>75.780000</v>
       </c>
       <c r="Z14" t="n" s="0">
-        <v>0.093000</v>
+        <v>0.260000</v>
       </c>
       <c r="AA14" t="n" s="0">
-        <v>0.037000</v>
+        <v>0.039000</v>
       </c>
       <c r="AB14" t="n" s="0">
-        <v>2.300000</v>
+        <v>5.570000</v>
       </c>
       <c r="AC14" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.310000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>2.620000</v>
+        <v>3.500000</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>83.690000</v>
+        <v>75.430000</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>10.720000</v>
+        <v>20.940000</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>4.780000</v>
+        <v>8.540000</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>10.160000</v>
+        <v>16.850000</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>3.440000</v>
+        <v>5.260000</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>8.220000</v>
+        <v>13.800000</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>20.880000</v>
+        <v>37.800000</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>38.200000</v>
+        <v>75.060000</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>1.090000</v>
+        <v>0.260000</v>
       </c>
       <c r="L15" t="n" s="0">
-        <v>0.160000</v>
+        <v>0.039000</v>
       </c>
       <c r="M15" t="n" s="0">
-        <v>52.880000</v>
+        <v>5.570000</v>
       </c>
       <c r="N15" t="n" s="0">
-        <v>2.940000</v>
+        <v>0.310000</v>
       </c>
       <c r="O15" t="n" s="0">
         <v/>
       </c>
       <c r="P15" t="s" s="0">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="Q15" t="n" s="0">
-        <v>2.660000</v>
+        <v>3.480000</v>
       </c>
       <c r="R15" t="n" s="0">
-        <v>83.660000</v>
+        <v>75.520000</v>
       </c>
       <c r="S15" t="n" s="0">
-        <v>10.720000</v>
+        <v>20.940000</v>
       </c>
       <c r="T15" t="n" s="0">
-        <v>4.780000</v>
+        <v>8.540000</v>
       </c>
       <c r="U15" t="n" s="0">
-        <v>10.250000</v>
+        <v>16.800000</v>
       </c>
       <c r="V15" t="n" s="0">
-        <v>3.440000</v>
+        <v>5.220000</v>
       </c>
       <c r="W15" t="n" s="0">
-        <v>8.220000</v>
+        <v>13.760000</v>
       </c>
       <c r="X15" t="n" s="0">
-        <v>20.970000</v>
+        <v>37.740000</v>
       </c>
       <c r="Y15" t="n" s="0">
-        <v>38.230000</v>
+        <v>75.040000</v>
       </c>
       <c r="Z15" t="n" s="0">
-        <v>1.090000</v>
+        <v>0.093000</v>
       </c>
       <c r="AA15" t="n" s="0">
-        <v>0.160000</v>
+        <v>0.037000</v>
       </c>
       <c r="AB15" t="n" s="0">
-        <v>52.880000</v>
+        <v>2.300000</v>
       </c>
       <c r="AC15" t="n" s="0">
-        <v>2.940000</v>
+        <v>0.130000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>2.620000</v>
@@ -1925,34 +2012,34 @@
         <v/>
       </c>
       <c r="P16" t="s" s="0">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="Q16" t="n" s="0">
-        <v>2.590000</v>
+        <v>2.660000</v>
       </c>
       <c r="R16" t="n" s="0">
-        <v>83.720000</v>
+        <v>83.660000</v>
       </c>
       <c r="S16" t="n" s="0">
-        <v>10.500000</v>
+        <v>10.720000</v>
       </c>
       <c r="T16" t="n" s="0">
         <v>4.780000</v>
       </c>
       <c r="U16" t="n" s="0">
-        <v>10.030000</v>
+        <v>10.250000</v>
       </c>
       <c r="V16" t="n" s="0">
-        <v>3.380000</v>
+        <v>3.440000</v>
       </c>
       <c r="W16" t="n" s="0">
-        <v>8.160000</v>
+        <v>8.220000</v>
       </c>
       <c r="X16" t="n" s="0">
-        <v>20.530000</v>
+        <v>20.970000</v>
       </c>
       <c r="Y16" t="n" s="0">
-        <v>37.660000</v>
+        <v>38.230000</v>
       </c>
       <c r="Z16" t="n" s="0">
         <v>1.090000</v>
@@ -1969,452 +2056,452 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>2.060000</v>
+        <v>2.620000</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>80.300000</v>
+        <v>83.690000</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>10.130000</v>
+        <v>10.720000</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>3.750000</v>
+        <v>4.780000</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>7.160000</v>
+        <v>10.160000</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>3.040000</v>
+        <v>3.440000</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>6.800000</v>
+        <v>8.220000</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>17.290000</v>
+        <v>20.880000</v>
       </c>
       <c r="J17" t="n" s="0">
-        <v>29.440000</v>
+        <v>38.200000</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>0.014000</v>
+        <v>1.090000</v>
       </c>
       <c r="L17" t="n" s="0">
-        <v>0.014000</v>
+        <v>0.160000</v>
       </c>
       <c r="M17" t="n" s="0">
-        <v>0.087000</v>
+        <v>52.880000</v>
       </c>
       <c r="N17" t="n" s="0">
-        <v>0.004800</v>
+        <v>2.940000</v>
       </c>
       <c r="O17" t="n" s="0">
         <v/>
       </c>
       <c r="P17" t="s" s="0">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="Q17" t="n" s="0">
-        <v>2.070000</v>
+        <v>2.590000</v>
       </c>
       <c r="R17" t="n" s="0">
-        <v>80.260000</v>
+        <v>83.720000</v>
       </c>
       <c r="S17" t="n" s="0">
-        <v>10.190000</v>
+        <v>10.500000</v>
       </c>
       <c r="T17" t="n" s="0">
-        <v>3.750000</v>
+        <v>4.780000</v>
       </c>
       <c r="U17" t="n" s="0">
-        <v>7.190000</v>
+        <v>10.030000</v>
       </c>
       <c r="V17" t="n" s="0">
-        <v>3.060000</v>
+        <v>3.380000</v>
       </c>
       <c r="W17" t="n" s="0">
-        <v>6.810000</v>
+        <v>8.160000</v>
       </c>
       <c r="X17" t="n" s="0">
-        <v>17.380000</v>
+        <v>20.530000</v>
       </c>
       <c r="Y17" t="n" s="0">
-        <v>29.540000</v>
+        <v>37.660000</v>
       </c>
       <c r="Z17" t="n" s="0">
-        <v>0.014000</v>
+        <v>1.090000</v>
       </c>
       <c r="AA17" t="n" s="0">
-        <v>0.014000</v>
+        <v>0.160000</v>
       </c>
       <c r="AB17" t="n" s="0">
-        <v>0.087000</v>
+        <v>52.880000</v>
       </c>
       <c r="AC17" t="n" s="0">
-        <v>0.004800</v>
+        <v>2.940000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>5.000000</v>
+        <v>2.060000</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>78.860000</v>
+        <v>80.300000</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>16.000000</v>
+        <v>10.130000</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>6.290000</v>
+        <v>3.750000</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>11.570000</v>
+        <v>7.160000</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>3.570000</v>
+        <v>3.040000</v>
       </c>
       <c r="H18" t="n" s="0">
-        <v>9.860000</v>
+        <v>6.800000</v>
       </c>
       <c r="I18" t="n" s="0">
-        <v>27.570000</v>
+        <v>17.290000</v>
       </c>
       <c r="J18" t="n" s="0">
-        <v>48.540000</v>
+        <v>29.440000</v>
       </c>
       <c r="K18" t="n" s="0">
-        <v>0.430000</v>
+        <v>0.014000</v>
       </c>
       <c r="L18" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.014000</v>
       </c>
       <c r="M18" t="n" s="0">
-        <v>10.380000</v>
+        <v>0.087000</v>
       </c>
       <c r="N18" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.004800</v>
       </c>
       <c r="O18" t="n" s="0">
         <v/>
       </c>
       <c r="P18" t="s" s="0">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="Q18" t="n" s="0">
-        <v>5.290000</v>
+        <v>2.070000</v>
       </c>
       <c r="R18" t="n" s="0">
-        <v>78.570000</v>
+        <v>80.260000</v>
       </c>
       <c r="S18" t="n" s="0">
-        <v>17.710000</v>
+        <v>10.190000</v>
       </c>
       <c r="T18" t="n" s="0">
-        <v>6.430000</v>
+        <v>3.750000</v>
       </c>
       <c r="U18" t="n" s="0">
-        <v>13.570000</v>
+        <v>7.190000</v>
       </c>
       <c r="V18" t="n" s="0">
-        <v>3.570000</v>
+        <v>3.060000</v>
       </c>
       <c r="W18" t="n" s="0">
-        <v>10.000000</v>
+        <v>6.810000</v>
       </c>
       <c r="X18" t="n" s="0">
-        <v>31.290000</v>
+        <v>17.380000</v>
       </c>
       <c r="Y18" t="n" s="0">
-        <v>50.670000</v>
+        <v>29.540000</v>
       </c>
       <c r="Z18" t="n" s="0">
-        <v>0.430000</v>
+        <v>0.014000</v>
       </c>
       <c r="AA18" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.014000</v>
       </c>
       <c r="AB18" t="n" s="0">
-        <v>10.380000</v>
+        <v>0.087000</v>
       </c>
       <c r="AC18" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.004800</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>2.150000</v>
+        <v>5.000000</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>78.540000</v>
+        <v>78.860000</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>13.850000</v>
+        <v>16.000000</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>5.620000</v>
+        <v>6.290000</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>8.080000</v>
+        <v>11.570000</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>4.000000</v>
+        <v>3.570000</v>
       </c>
       <c r="H19" t="n" s="0">
-        <v>9.620000</v>
+        <v>9.860000</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>21.920000</v>
+        <v>27.570000</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>45.250000</v>
+        <v>48.540000</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>0.077000</v>
+        <v>0.430000</v>
       </c>
       <c r="L19" t="n" s="0">
-        <v>0.077000</v>
+        <v>0.210000</v>
       </c>
       <c r="M19" t="n" s="0">
-        <v>1.300000</v>
+        <v>10.380000</v>
       </c>
       <c r="N19" t="n" s="0">
-        <v>0.072000</v>
+        <v>0.580000</v>
       </c>
       <c r="O19" t="n" s="0">
         <v/>
       </c>
       <c r="P19" t="s" s="0">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="Q19" t="n" s="0">
-        <v>2.230000</v>
+        <v>5.290000</v>
       </c>
       <c r="R19" t="n" s="0">
-        <v>78.380000</v>
+        <v>78.570000</v>
       </c>
       <c r="S19" t="n" s="0">
-        <v>14.000000</v>
+        <v>17.710000</v>
       </c>
       <c r="T19" t="n" s="0">
-        <v>5.690000</v>
+        <v>6.430000</v>
       </c>
       <c r="U19" t="n" s="0">
-        <v>8.230000</v>
+        <v>13.570000</v>
       </c>
       <c r="V19" t="n" s="0">
-        <v>4.150000</v>
+        <v>3.570000</v>
       </c>
       <c r="W19" t="n" s="0">
-        <v>9.850000</v>
+        <v>10.000000</v>
       </c>
       <c r="X19" t="n" s="0">
-        <v>22.230000</v>
+        <v>31.290000</v>
       </c>
       <c r="Y19" t="n" s="0">
-        <v>46.680000</v>
+        <v>50.670000</v>
       </c>
       <c r="Z19" t="n" s="0">
-        <v>0.077000</v>
+        <v>0.430000</v>
       </c>
       <c r="AA19" t="n" s="0">
-        <v>0.077000</v>
+        <v>0.210000</v>
       </c>
       <c r="AB19" t="n" s="0">
-        <v>1.300000</v>
+        <v>10.380000</v>
       </c>
       <c r="AC19" t="n" s="0">
-        <v>0.072000</v>
+        <v>0.580000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B20" t="n" s="0">
+        <v>2.150000</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>78.540000</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>13.850000</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>5.620000</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>8.080000</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>4.000000</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>9.620000</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>21.920000</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>45.250000</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>0.077000</v>
+      </c>
+      <c r="L20" t="n" s="0">
+        <v>0.077000</v>
+      </c>
+      <c r="M20" t="n" s="0">
         <v>1.300000</v>
       </c>
-      <c r="C20" t="n" s="0">
-        <v>90.700000</v>
-      </c>
-      <c r="D20" t="n" s="0">
-        <v>4.130000</v>
-      </c>
-      <c r="E20" t="n" s="0">
-        <v>3.520000</v>
-      </c>
-      <c r="F20" t="n" s="0">
-        <v>3.220000</v>
-      </c>
-      <c r="G20" t="n" s="0">
-        <v>1.570000</v>
-      </c>
-      <c r="H20" t="n" s="0">
-        <v>5.090000</v>
-      </c>
-      <c r="I20" t="n" s="0">
-        <v>7.350000</v>
-      </c>
-      <c r="J20" t="n" s="0">
-        <v>16.900000</v>
-      </c>
-      <c r="K20" t="n" s="0">
-        <v>0.300000</v>
-      </c>
-      <c r="L20" t="n" s="0">
-        <v>0.051000</v>
-      </c>
-      <c r="M20" t="n" s="0">
-        <v>5.370000</v>
-      </c>
       <c r="N20" t="n" s="0">
-        <v>0.300000</v>
+        <v>0.072000</v>
       </c>
       <c r="O20" t="n" s="0">
         <v/>
       </c>
       <c r="P20" t="s" s="0">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="Q20" t="n" s="0">
+        <v>2.230000</v>
+      </c>
+      <c r="R20" t="n" s="0">
+        <v>78.380000</v>
+      </c>
+      <c r="S20" t="n" s="0">
+        <v>14.000000</v>
+      </c>
+      <c r="T20" t="n" s="0">
+        <v>5.690000</v>
+      </c>
+      <c r="U20" t="n" s="0">
+        <v>8.230000</v>
+      </c>
+      <c r="V20" t="n" s="0">
+        <v>4.150000</v>
+      </c>
+      <c r="W20" t="n" s="0">
+        <v>9.850000</v>
+      </c>
+      <c r="X20" t="n" s="0">
+        <v>22.230000</v>
+      </c>
+      <c r="Y20" t="n" s="0">
+        <v>46.680000</v>
+      </c>
+      <c r="Z20" t="n" s="0">
+        <v>0.077000</v>
+      </c>
+      <c r="AA20" t="n" s="0">
+        <v>0.077000</v>
+      </c>
+      <c r="AB20" t="n" s="0">
         <v>1.300000</v>
       </c>
-      <c r="R20" t="n" s="0">
-        <v>90.700000</v>
-      </c>
-      <c r="S20" t="n" s="0">
-        <v>4.130000</v>
-      </c>
-      <c r="T20" t="n" s="0">
-        <v>3.520000</v>
-      </c>
-      <c r="U20" t="n" s="0">
-        <v>3.220000</v>
-      </c>
-      <c r="V20" t="n" s="0">
-        <v>1.570000</v>
-      </c>
-      <c r="W20" t="n" s="0">
-        <v>5.090000</v>
-      </c>
-      <c r="X20" t="n" s="0">
-        <v>7.350000</v>
-      </c>
-      <c r="Y20" t="n" s="0">
-        <v>16.900000</v>
-      </c>
-      <c r="Z20" t="n" s="0">
-        <v>0.300000</v>
-      </c>
-      <c r="AA20" t="n" s="0">
-        <v>0.051000</v>
-      </c>
-      <c r="AB20" t="n" s="0">
-        <v>5.370000</v>
-      </c>
       <c r="AC20" t="n" s="0">
-        <v>0.300000</v>
+        <v>0.072000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>6.000000</v>
+        <v>1.300000</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>65.240000</v>
+        <v>90.700000</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>51.360000</v>
+        <v>4.130000</v>
       </c>
       <c r="E21" t="n" s="0">
-        <v>11.980000</v>
+        <v>3.520000</v>
       </c>
       <c r="F21" t="n" s="0">
-        <v>44.050000</v>
+        <v>3.220000</v>
       </c>
       <c r="G21" t="n" s="0">
-        <v>8.380000</v>
+        <v>1.570000</v>
       </c>
       <c r="H21" t="n" s="0">
-        <v>20.360000</v>
+        <v>5.090000</v>
       </c>
       <c r="I21" t="n" s="0">
-        <v>95.400000</v>
+        <v>7.350000</v>
       </c>
       <c r="J21" t="n" s="0">
-        <v>133.090000</v>
+        <v>16.900000</v>
       </c>
       <c r="K21" t="n" s="0">
-        <v>0.290000</v>
+        <v>0.300000</v>
       </c>
       <c r="L21" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.051000</v>
       </c>
       <c r="M21" t="n" s="0">
-        <v>3.790000</v>
+        <v>5.370000</v>
       </c>
       <c r="N21" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.300000</v>
       </c>
       <c r="O21" t="n" s="0">
         <v/>
       </c>
       <c r="P21" t="s" s="0">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="Q21" t="n" s="0">
-        <v>6.020000</v>
+        <v>1.300000</v>
       </c>
       <c r="R21" t="n" s="0">
-        <v>65.210000</v>
+        <v>90.700000</v>
       </c>
       <c r="S21" t="n" s="0">
-        <v>51.360000</v>
+        <v>4.130000</v>
       </c>
       <c r="T21" t="n" s="0">
-        <v>12.000000</v>
+        <v>3.520000</v>
       </c>
       <c r="U21" t="n" s="0">
-        <v>44.100000</v>
+        <v>3.220000</v>
       </c>
       <c r="V21" t="n" s="0">
-        <v>8.400000</v>
+        <v>1.570000</v>
       </c>
       <c r="W21" t="n" s="0">
-        <v>20.400000</v>
+        <v>5.090000</v>
       </c>
       <c r="X21" t="n" s="0">
-        <v>95.450000</v>
+        <v>7.350000</v>
       </c>
       <c r="Y21" t="n" s="0">
-        <v>133.390000</v>
+        <v>16.900000</v>
       </c>
       <c r="Z21" t="n" s="0">
-        <v>0.290000</v>
+        <v>0.300000</v>
       </c>
       <c r="AA21" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.051000</v>
       </c>
       <c r="AB21" t="n" s="0">
-        <v>3.790000</v>
+        <v>5.370000</v>
       </c>
       <c r="AC21" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.300000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>6.000000</v>
@@ -2459,34 +2546,34 @@
         <v/>
       </c>
       <c r="P22" t="s" s="0">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="Q22" t="n" s="0">
         <v>6.020000</v>
       </c>
       <c r="R22" t="n" s="0">
-        <v>65.260000</v>
+        <v>65.210000</v>
       </c>
       <c r="S22" t="n" s="0">
-        <v>51.330000</v>
+        <v>51.360000</v>
       </c>
       <c r="T22" t="n" s="0">
         <v>12.000000</v>
       </c>
       <c r="U22" t="n" s="0">
-        <v>44.050000</v>
+        <v>44.100000</v>
       </c>
       <c r="V22" t="n" s="0">
-        <v>8.330000</v>
+        <v>8.400000</v>
       </c>
       <c r="W22" t="n" s="0">
-        <v>20.330000</v>
+        <v>20.400000</v>
       </c>
       <c r="X22" t="n" s="0">
-        <v>95.380000</v>
+        <v>95.450000</v>
       </c>
       <c r="Y22" t="n" s="0">
-        <v>132.900000</v>
+        <v>133.390000</v>
       </c>
       <c r="Z22" t="n" s="0">
         <v>0.290000</v>
@@ -2503,301 +2590,301 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>3.000000</v>
+        <v>6.000000</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>75.110000</v>
+        <v>65.240000</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>11.330000</v>
+        <v>51.360000</v>
       </c>
       <c r="E23" t="n" s="0">
-        <v>6.000000</v>
+        <v>11.980000</v>
       </c>
       <c r="F23" t="n" s="0">
-        <v>10.110000</v>
+        <v>44.050000</v>
       </c>
       <c r="G23" t="n" s="0">
-        <v>5.110000</v>
+        <v>8.380000</v>
       </c>
       <c r="H23" t="n" s="0">
-        <v>11.110000</v>
+        <v>20.360000</v>
       </c>
       <c r="I23" t="n" s="0">
-        <v>21.440000</v>
+        <v>95.400000</v>
       </c>
       <c r="J23" t="n" s="0">
-        <v>51.120000</v>
+        <v>133.090000</v>
       </c>
       <c r="K23" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.290000</v>
       </c>
       <c r="L23" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.022000</v>
       </c>
       <c r="M23" t="n" s="0">
-        <v>0.000000</v>
+        <v>3.790000</v>
       </c>
       <c r="N23" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.210000</v>
       </c>
       <c r="O23" t="n" s="0">
         <v/>
       </c>
       <c r="P23" t="s" s="0">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="Q23" t="n" s="0">
-        <v>3.110000</v>
+        <v>6.020000</v>
       </c>
       <c r="R23" t="n" s="0">
-        <v>74.890000</v>
+        <v>65.260000</v>
       </c>
       <c r="S23" t="n" s="0">
-        <v>11.440000</v>
+        <v>51.330000</v>
       </c>
       <c r="T23" t="n" s="0">
-        <v>6.000000</v>
+        <v>12.000000</v>
       </c>
       <c r="U23" t="n" s="0">
-        <v>10.330000</v>
+        <v>44.050000</v>
       </c>
       <c r="V23" t="n" s="0">
-        <v>5.220000</v>
+        <v>8.330000</v>
       </c>
       <c r="W23" t="n" s="0">
-        <v>11.220000</v>
+        <v>20.330000</v>
       </c>
       <c r="X23" t="n" s="0">
-        <v>21.780000</v>
+        <v>95.380000</v>
       </c>
       <c r="Y23" t="n" s="0">
-        <v>51.910000</v>
+        <v>132.900000</v>
       </c>
       <c r="Z23" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.290000</v>
       </c>
       <c r="AA23" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.022000</v>
       </c>
       <c r="AB23" t="n" s="0">
-        <v>0.000000</v>
+        <v>3.790000</v>
       </c>
       <c r="AC23" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.210000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>2.570000</v>
+        <v>3.000000</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>82.860000</v>
+        <v>75.110000</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>14.860000</v>
+        <v>11.330000</v>
       </c>
       <c r="E24" t="n" s="0">
-        <v>6.430000</v>
+        <v>6.000000</v>
       </c>
       <c r="F24" t="n" s="0">
-        <v>7.710000</v>
+        <v>10.110000</v>
       </c>
       <c r="G24" t="n" s="0">
-        <v>3.570000</v>
+        <v>5.110000</v>
       </c>
       <c r="H24" t="n" s="0">
-        <v>10.000000</v>
+        <v>11.110000</v>
       </c>
       <c r="I24" t="n" s="0">
-        <v>22.570000</v>
+        <v>21.440000</v>
       </c>
       <c r="J24" t="n" s="0">
-        <v>50.990000</v>
+        <v>51.120000</v>
       </c>
       <c r="K24" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="L24" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="M24" t="n" s="0">
-        <v>2.580000</v>
+        <v>0.000000</v>
       </c>
       <c r="N24" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="O24" t="n" s="0">
         <v/>
       </c>
       <c r="P24" t="s" s="0">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="Q24" t="n" s="0">
-        <v>2.570000</v>
+        <v>3.110000</v>
       </c>
       <c r="R24" t="n" s="0">
-        <v>82.860000</v>
+        <v>74.890000</v>
       </c>
       <c r="S24" t="n" s="0">
-        <v>14.570000</v>
+        <v>11.440000</v>
       </c>
       <c r="T24" t="n" s="0">
-        <v>6.570000</v>
+        <v>6.000000</v>
       </c>
       <c r="U24" t="n" s="0">
-        <v>7.710000</v>
+        <v>10.330000</v>
       </c>
       <c r="V24" t="n" s="0">
-        <v>3.570000</v>
+        <v>5.220000</v>
       </c>
       <c r="W24" t="n" s="0">
-        <v>10.140000</v>
+        <v>11.220000</v>
       </c>
       <c r="X24" t="n" s="0">
-        <v>22.290000</v>
+        <v>21.780000</v>
       </c>
       <c r="Y24" t="n" s="0">
-        <v>51.780000</v>
+        <v>51.910000</v>
       </c>
       <c r="Z24" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA24" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB24" t="n" s="0">
-        <v>2.580000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC24" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>2.230000</v>
+        <v>2.570000</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>84.970000</v>
+        <v>82.860000</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>9.160000</v>
+        <v>14.860000</v>
       </c>
       <c r="E25" t="n" s="0">
-        <v>4.000000</v>
+        <v>6.430000</v>
       </c>
       <c r="F25" t="n" s="0">
-        <v>8.320000</v>
+        <v>7.710000</v>
       </c>
       <c r="G25" t="n" s="0">
-        <v>3.230000</v>
+        <v>3.570000</v>
       </c>
       <c r="H25" t="n" s="0">
-        <v>7.230000</v>
+        <v>10.000000</v>
       </c>
       <c r="I25" t="n" s="0">
-        <v>17.480000</v>
+        <v>22.570000</v>
       </c>
       <c r="J25" t="n" s="0">
-        <v>31.720000</v>
+        <v>50.990000</v>
       </c>
       <c r="K25" t="n" s="0">
-        <v>0.230000</v>
+        <v>0.140000</v>
       </c>
       <c r="L25" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.140000</v>
       </c>
       <c r="M25" t="n" s="0">
-        <v>1.460000</v>
+        <v>2.580000</v>
       </c>
       <c r="N25" t="n" s="0">
-        <v>0.081000</v>
+        <v>0.140000</v>
       </c>
       <c r="O25" t="n" s="0">
         <v/>
       </c>
       <c r="P25" t="s" s="0">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="Q25" t="n" s="0">
-        <v>2.230000</v>
+        <v>2.570000</v>
       </c>
       <c r="R25" t="n" s="0">
-        <v>84.970000</v>
+        <v>82.860000</v>
       </c>
       <c r="S25" t="n" s="0">
-        <v>9.160000</v>
+        <v>14.570000</v>
       </c>
       <c r="T25" t="n" s="0">
-        <v>3.970000</v>
+        <v>6.570000</v>
       </c>
       <c r="U25" t="n" s="0">
-        <v>8.260000</v>
+        <v>7.710000</v>
       </c>
       <c r="V25" t="n" s="0">
-        <v>3.160000</v>
+        <v>3.570000</v>
       </c>
       <c r="W25" t="n" s="0">
-        <v>7.130000</v>
+        <v>10.140000</v>
       </c>
       <c r="X25" t="n" s="0">
-        <v>17.420000</v>
+        <v>22.290000</v>
       </c>
       <c r="Y25" t="n" s="0">
-        <v>31.150000</v>
+        <v>51.780000</v>
       </c>
       <c r="Z25" t="n" s="0">
-        <v>0.230000</v>
+        <v>0.140000</v>
       </c>
       <c r="AA25" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.140000</v>
       </c>
       <c r="AB25" t="n" s="0">
-        <v>1.460000</v>
+        <v>2.580000</v>
       </c>
       <c r="AC25" t="n" s="0">
-        <v>0.081000</v>
+        <v>0.140000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>2.190000</v>
+        <v>2.230000</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>85.000000</v>
+        <v>84.970000</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>9.130000</v>
+        <v>9.160000</v>
       </c>
       <c r="E26" t="n" s="0">
-        <v>3.970000</v>
+        <v>4.000000</v>
       </c>
       <c r="F26" t="n" s="0">
-        <v>8.190000</v>
+        <v>8.320000</v>
       </c>
       <c r="G26" t="n" s="0">
-        <v>3.160000</v>
+        <v>3.230000</v>
       </c>
       <c r="H26" t="n" s="0">
-        <v>7.130000</v>
+        <v>7.230000</v>
       </c>
       <c r="I26" t="n" s="0">
-        <v>17.320000</v>
+        <v>17.480000</v>
       </c>
       <c r="J26" t="n" s="0">
-        <v>31.120000</v>
+        <v>31.720000</v>
       </c>
       <c r="K26" t="n" s="0">
         <v>0.230000</v>
@@ -2815,34 +2902,34 @@
         <v/>
       </c>
       <c r="P26" t="s" s="0">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q26" t="n" s="0">
-        <v>2.290000</v>
+        <v>2.230000</v>
       </c>
       <c r="R26" t="n" s="0">
-        <v>84.940000</v>
+        <v>84.970000</v>
       </c>
       <c r="S26" t="n" s="0">
-        <v>9.260000</v>
+        <v>9.160000</v>
       </c>
       <c r="T26" t="n" s="0">
-        <v>4.000000</v>
+        <v>3.970000</v>
       </c>
       <c r="U26" t="n" s="0">
-        <v>8.550000</v>
+        <v>8.260000</v>
       </c>
       <c r="V26" t="n" s="0">
-        <v>3.190000</v>
+        <v>3.160000</v>
       </c>
       <c r="W26" t="n" s="0">
-        <v>7.190000</v>
+        <v>7.130000</v>
       </c>
       <c r="X26" t="n" s="0">
-        <v>17.810000</v>
+        <v>17.420000</v>
       </c>
       <c r="Y26" t="n" s="0">
-        <v>31.710000</v>
+        <v>31.150000</v>
       </c>
       <c r="Z26" t="n" s="0">
         <v>0.230000</v>
@@ -2859,180 +2946,180 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B27" t="n" s="0">
+        <v>2.190000</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>85.000000</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>9.130000</v>
+      </c>
+      <c r="E27" t="n" s="0">
+        <v>3.970000</v>
+      </c>
+      <c r="F27" t="n" s="0">
+        <v>8.190000</v>
+      </c>
+      <c r="G27" t="n" s="0">
+        <v>3.160000</v>
+      </c>
+      <c r="H27" t="n" s="0">
+        <v>7.130000</v>
+      </c>
+      <c r="I27" t="n" s="0">
+        <v>17.320000</v>
+      </c>
+      <c r="J27" t="n" s="0">
+        <v>31.120000</v>
+      </c>
+      <c r="K27" t="n" s="0">
+        <v>0.230000</v>
+      </c>
+      <c r="L27" t="n" s="0">
+        <v>0.130000</v>
+      </c>
+      <c r="M27" t="n" s="0">
+        <v>1.460000</v>
+      </c>
+      <c r="N27" t="n" s="0">
+        <v>0.081000</v>
+      </c>
+      <c r="O27" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P27" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="Q27" t="n" s="0">
+        <v>2.290000</v>
+      </c>
+      <c r="R27" t="n" s="0">
+        <v>84.940000</v>
+      </c>
+      <c r="S27" t="n" s="0">
+        <v>9.260000</v>
+      </c>
+      <c r="T27" t="n" s="0">
+        <v>4.000000</v>
+      </c>
+      <c r="U27" t="n" s="0">
+        <v>8.550000</v>
+      </c>
+      <c r="V27" t="n" s="0">
+        <v>3.190000</v>
+      </c>
+      <c r="W27" t="n" s="0">
+        <v>7.190000</v>
+      </c>
+      <c r="X27" t="n" s="0">
+        <v>17.810000</v>
+      </c>
+      <c r="Y27" t="n" s="0">
+        <v>31.710000</v>
+      </c>
+      <c r="Z27" t="n" s="0">
+        <v>0.230000</v>
+      </c>
+      <c r="AA27" t="n" s="0">
+        <v>0.130000</v>
+      </c>
+      <c r="AB27" t="n" s="0">
+        <v>1.460000</v>
+      </c>
+      <c r="AC27" t="n" s="0">
+        <v>0.081000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B28" t="n" s="0">
         <v>2.390000</v>
       </c>
-      <c r="C27" t="n" s="0">
+      <c r="C28" t="n" s="0">
         <v>82.720000</v>
       </c>
-      <c r="D27" t="n" s="0">
+      <c r="D28" t="n" s="0">
         <v>16.890000</v>
       </c>
-      <c r="E27" t="n" s="0">
+      <c r="E28" t="n" s="0">
         <v>5.500000</v>
       </c>
-      <c r="F27" t="n" s="0">
+      <c r="F28" t="n" s="0">
         <v>10.110000</v>
       </c>
-      <c r="G27" t="n" s="0">
+      <c r="G28" t="n" s="0">
         <v>3.780000</v>
       </c>
-      <c r="H27" t="n" s="0">
+      <c r="H28" t="n" s="0">
         <v>9.280000</v>
       </c>
-      <c r="I27" t="n" s="0">
+      <c r="I28" t="n" s="0">
         <v>27.000000</v>
       </c>
-      <c r="J27" t="n" s="0">
+      <c r="J28" t="n" s="0">
         <v>49.560000</v>
       </c>
-      <c r="K27" t="n" s="0">
+      <c r="K28" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="L27" t="n" s="0">
+      <c r="L28" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="M27" t="n" s="0">
+      <c r="M28" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="N27" t="n" s="0">
+      <c r="N28" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="O27" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P27" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="Q27" t="n" s="0">
+      <c r="O28" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P28" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="Q28" t="n" s="0">
         <v>2.330000</v>
       </c>
-      <c r="R27" t="n" s="0">
+      <c r="R28" t="n" s="0">
         <v>82.940000</v>
       </c>
-      <c r="S27" t="n" s="0">
+      <c r="S28" t="n" s="0">
         <v>16.000000</v>
       </c>
-      <c r="T27" t="n" s="0">
+      <c r="T28" t="n" s="0">
         <v>5.330000</v>
       </c>
-      <c r="U27" t="n" s="0">
+      <c r="U28" t="n" s="0">
         <v>9.560000</v>
       </c>
-      <c r="V27" t="n" s="0">
+      <c r="V28" t="n" s="0">
         <v>3.890000</v>
       </c>
-      <c r="W27" t="n" s="0">
+      <c r="W28" t="n" s="0">
         <v>9.220000</v>
       </c>
-      <c r="X27" t="n" s="0">
+      <c r="X28" t="n" s="0">
         <v>25.560000</v>
       </c>
-      <c r="Y27" t="n" s="0">
+      <c r="Y28" t="n" s="0">
         <v>48.440000</v>
       </c>
-      <c r="Z27" t="n" s="0">
+      <c r="Z28" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="AA27" t="n" s="0">
+      <c r="AA28" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="AB27" t="n" s="0">
+      <c r="AB28" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="AC27" t="n" s="0">
+      <c r="AC28" t="n" s="0">
         <v>0.000000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="B28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="C28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="D28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="E28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="F28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="G28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="H28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="I28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="J28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="K28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="L28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="M28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="N28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="O28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Q28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="R28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="S28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="T28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="U28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="V28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="W28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="X28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Y28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Z28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AA28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AB28" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AC28" t="n" s="0">
-        <v/>
       </c>
     </row>
     <row r="29">
@@ -47265,6 +47352,95 @@
         <v/>
       </c>
       <c r="AC525" t="n" s="0">
+        <v/>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="B526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="C526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="D526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="E526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="F526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="G526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="H526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="I526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="J526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="K526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="L526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="M526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="N526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="O526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="Q526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="R526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="S526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="T526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="U526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="V526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="W526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="X526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="Y526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="Z526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="AA526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="AB526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="AC526" t="n" s="0">
         <v/>
       </c>
     </row>
